--- a/data/coaches/coach_team.xlsx
+++ b/data/coaches/coach_team.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bastit\Documents\fantasy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Python\Documents\fantasy_football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2CD180-9333-4FB7-B6A3-18A0A6AAFCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20216473-1076-42A5-B33B-A9EB13A5F965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -975,23 +975,23 @@
   <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>72</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>64</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>30</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>34</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>46</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>11</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>11</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>26</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>42</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>54</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>58</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>60</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>11</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>14</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>42</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>64</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>66</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>16</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>24</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>28</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>30</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>36</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>40</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>52</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>62</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>66</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>68</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>16</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>26</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>28</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>44</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>62</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>64</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>72</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>18</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>24</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>28</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>38</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>40</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>42</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>54</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>64</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>70</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>36</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>38</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>42</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>46</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>46</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>54</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>66</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>68</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>16</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>20</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>24</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>34</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>38</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>40</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>56</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>60</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>24</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>30</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>34</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>44</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>54</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>68</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>70</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>72</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>11</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>20</v>
       </c>
@@ -4664,8 +4664,11 @@
       <c r="F127" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>28</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>42</v>
       </c>
@@ -4713,8 +4716,11 @@
       <c r="F129" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>52</v>
       </c>
@@ -4733,8 +4739,11 @@
       <c r="F130" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>54</v>
       </c>
@@ -4763,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>56</v>
       </c>
@@ -4782,8 +4791,11 @@
       <c r="F132" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>70</v>
       </c>
@@ -4812,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>16</v>
       </c>
@@ -4841,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>24</v>
       </c>
@@ -4860,8 +4872,11 @@
       <c r="F135" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>38</v>
       </c>
@@ -4890,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>147</v>
       </c>
@@ -4919,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>147</v>
       </c>
@@ -4938,8 +4953,11 @@
       <c r="F138" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>42</v>
       </c>
@@ -4968,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>50</v>
       </c>
@@ -4997,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>56</v>
       </c>
@@ -5026,7 +5044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>64</v>
       </c>
@@ -5045,8 +5063,11 @@
       <c r="F142" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>68</v>
       </c>
@@ -5065,8 +5086,11 @@
       <c r="F143" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>16</v>
       </c>
@@ -5095,7 +5119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>28</v>
       </c>
@@ -5114,8 +5138,11 @@
       <c r="F145" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>155</v>
       </c>
@@ -5144,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
@@ -5173,7 +5200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>50</v>
       </c>
@@ -5192,8 +5219,11 @@
       <c r="F148" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>64</v>
       </c>
@@ -5222,7 +5252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>9</v>
       </c>
@@ -5241,8 +5271,11 @@
       <c r="F150" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>20</v>
       </c>
@@ -5271,7 +5304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>24</v>
       </c>
@@ -5290,8 +5323,11 @@
       <c r="F152" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>30</v>
       </c>
@@ -5310,8 +5346,11 @@
       <c r="F153" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>32</v>
       </c>
@@ -5330,8 +5369,11 @@
       <c r="F154" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>36</v>
       </c>
@@ -5360,7 +5402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>50</v>
       </c>
@@ -5379,8 +5421,11 @@
       <c r="F156" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>54</v>
       </c>
@@ -5409,7 +5454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>70</v>
       </c>
@@ -5438,7 +5483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>9</v>
       </c>
@@ -5467,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>18</v>
       </c>
@@ -5486,8 +5531,11 @@
       <c r="F160" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>22</v>
       </c>
@@ -5516,7 +5564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>24</v>
       </c>
@@ -5535,8 +5583,11 @@
       <c r="F162" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>28</v>
       </c>
@@ -5555,8 +5606,11 @@
       <c r="F163" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>32</v>
       </c>
@@ -5585,7 +5639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>42</v>
       </c>
@@ -5604,8 +5658,11 @@
       <c r="F165" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>52</v>
       </c>
@@ -5624,8 +5681,11 @@
       <c r="F166" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>68</v>
       </c>
@@ -5654,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>72</v>
       </c>
@@ -5673,8 +5733,11 @@
       <c r="F168" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>11</v>
       </c>
@@ -5693,8 +5756,11 @@
       <c r="F169" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>18</v>
       </c>
@@ -5713,8 +5779,11 @@
       <c r="F170" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>24</v>
       </c>
@@ -5743,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>26</v>
       </c>
@@ -5772,7 +5841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>30</v>
       </c>
@@ -5791,8 +5860,11 @@
       <c r="F173" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>34</v>
       </c>
@@ -5811,8 +5883,11 @@
       <c r="F174" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>172</v>
       </c>
@@ -5841,7 +5916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>50</v>
       </c>
@@ -5860,8 +5935,11 @@
       <c r="F176" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>72</v>
       </c>
@@ -5890,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
@@ -5909,8 +5987,11 @@
       <c r="F178" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>30</v>
       </c>
@@ -5929,8 +6010,11 @@
       <c r="F179" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>34</v>
       </c>
@@ -5949,8 +6033,11 @@
       <c r="F180" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>38</v>
       </c>
@@ -5969,8 +6056,11 @@
       <c r="F181" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>38</v>
       </c>
@@ -5989,8 +6079,11 @@
       <c r="F182" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>155</v>
       </c>
@@ -6019,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>172</v>
       </c>
@@ -6048,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>52</v>
       </c>
@@ -6067,8 +6160,11 @@
       <c r="F185" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>56</v>
       </c>
@@ -6097,7 +6193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>18</v>
       </c>
@@ -6116,8 +6212,11 @@
       <c r="F187" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>20</v>
       </c>
@@ -6136,8 +6235,11 @@
       <c r="F188" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>28</v>
       </c>
@@ -6156,8 +6258,11 @@
       <c r="F189" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>28</v>
       </c>
@@ -6176,8 +6281,11 @@
       <c r="F190" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>34</v>
       </c>
@@ -6196,8 +6304,11 @@
       <c r="F191" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>36</v>
       </c>
@@ -6216,8 +6327,11 @@
       <c r="F192" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>38</v>
       </c>
@@ -6246,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>172</v>
       </c>
@@ -6265,8 +6379,11 @@
       <c r="F194" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>42</v>
       </c>
@@ -6295,7 +6412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>44</v>
       </c>
@@ -6324,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>46</v>
       </c>
@@ -6343,8 +6460,11 @@
       <c r="F197" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>50</v>
       </c>
@@ -6373,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>68</v>
       </c>
@@ -6402,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>9</v>
       </c>
@@ -6421,8 +6541,11 @@
       <c r="F200" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>18</v>
       </c>
@@ -6441,8 +6564,11 @@
       <c r="F201" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>28</v>
       </c>
@@ -6461,8 +6587,11 @@
       <c r="F202" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>34</v>
       </c>
@@ -6481,8 +6610,11 @@
       <c r="F203" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>36</v>
       </c>
@@ -6501,8 +6633,11 @@
       <c r="F204" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>172</v>
       </c>
@@ -6512,10 +6647,15 @@
       <c r="C205" s="2">
         <v>0</v>
       </c>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I205" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>